--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.732</v>
+        <v>-12.135</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.536</v>
+        <v>-21.728</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.742</v>
+        <v>-13.058</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.443999999999999</v>
+        <v>-8.309000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.068</v>
+        <v>13.078</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.976000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.284000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>12.766</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.58</v>
+        <v>-21.13</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.672</v>
+        <v>-21.104</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.732</v>
+        <v>-11.931</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.428000000000001</v>
+        <v>-8.030000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.238</v>
+        <v>12.753</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.178</v>
+        <v>-21.04</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.440000000000001</v>
+        <v>-7.936000000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>13.176</v>
+        <v>13.293</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.934</v>
+        <v>-21.701</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.077</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
